--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,15 +46,18 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
@@ -64,7 +67,10 @@
     <t>interesting</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>positive</t>
@@ -73,31 +79,34 @@
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>good</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>well</t>
@@ -106,25 +115,22 @@
     <t>better</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>hand</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>please</t>
@@ -485,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -554,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.88</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -572,19 +578,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -596,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -604,13 +610,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7207792207792207</v>
+        <v>0.5856164383561644</v>
       </c>
       <c r="C4">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="D4">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -622,19 +628,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9375</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -646,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -654,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2918454935622318</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C5">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D5">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -672,19 +678,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.8888888888888888</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -696,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -704,13 +710,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2093023255813954</v>
+        <v>0.1705426356589147</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -722,19 +728,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>68</v>
+        <v>428</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -746,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -754,13 +760,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8518518518518519</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -772,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -780,13 +786,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.85</v>
+        <v>0.8203125</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -798,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -806,13 +812,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8431372549019608</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -824,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -832,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8392857142857143</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -850,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -858,13 +864,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8235294117647058</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -876,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -884,13 +890,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.8148148148148148</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M12">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -910,13 +916,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7413793103448276</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L13">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -936,13 +942,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7307692307692307</v>
+        <v>0.6971830985915493</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="M14">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -954,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -962,13 +968,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7241379310344828</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -980,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -988,13 +994,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.68</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1006,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1014,13 +1020,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6712328767123288</v>
+        <v>0.6625</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1032,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1040,13 +1046,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1058,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1066,25 +1072,25 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6060606060606061</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L19">
+        <v>27</v>
+      </c>
+      <c r="M19">
+        <v>27</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>20</v>
-      </c>
-      <c r="M19">
-        <v>20</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1092,13 +1098,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5714285714285714</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1110,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1118,13 +1124,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5600000000000001</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="M21">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1136,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1144,13 +1150,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5069444444444444</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L22">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1162,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1170,13 +1176,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>0.4882506527415144</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1188,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1196,13 +1202,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4883720930232558</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="L24">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="M24">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1214,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>66</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1222,13 +1228,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4741784037558686</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L25">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1240,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>112</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1248,13 +1254,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1266,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1274,13 +1280,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.358695652173913</v>
+        <v>0.390625</v>
       </c>
       <c r="L27">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1292,7 +1298,59 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>59</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>0.3561643835616438</v>
+      </c>
+      <c r="L28">
+        <v>26</v>
+      </c>
+      <c r="M28">
+        <v>26</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29">
+        <v>0.301255230125523</v>
+      </c>
+      <c r="L29">
+        <v>72</v>
+      </c>
+      <c r="M29">
+        <v>72</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,7 +55,7 @@
     <t>negative</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>love</t>
@@ -64,73 +64,67 @@
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>special</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>special</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
@@ -491,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,7 +496,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7941176470588235</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,19 +572,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -602,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -610,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5856164383561644</v>
+        <v>0.5924657534246576</v>
       </c>
       <c r="C4">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D4">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,19 +622,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -652,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -660,13 +654,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2063492063492063</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C5">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -702,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -710,13 +704,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1705426356589147</v>
+        <v>0.1724806201550388</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -728,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8787878787878788</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -752,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -760,13 +754,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -778,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -786,13 +780,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8203125</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L8">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -804,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -812,13 +806,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.7931034482758621</v>
+        <v>0.7890625</v>
       </c>
       <c r="L9">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="M9">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -830,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -838,13 +832,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7926829268292683</v>
+        <v>0.75</v>
       </c>
       <c r="L10">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="M10">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -856,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -864,13 +858,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7583333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="L11">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M11">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -882,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -916,13 +910,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7058823529411765</v>
+        <v>0.6971830985915493</v>
       </c>
       <c r="L13">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="M13">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -934,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -942,13 +936,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6971830985915493</v>
+        <v>0.69375</v>
       </c>
       <c r="L14">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="M14">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -960,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -968,13 +962,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6944444444444444</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="M15">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -986,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -994,13 +988,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6792452830188679</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L16">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1012,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1020,13 +1014,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6625</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L17">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="M17">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1038,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1046,13 +1040,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6041666666666666</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1064,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1072,13 +1066,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.574468085106383</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1090,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1098,25 +1092,25 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5600000000000001</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L20">
+        <v>35</v>
+      </c>
+      <c r="M20">
+        <v>35</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>28</v>
-      </c>
-      <c r="M20">
-        <v>28</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>22</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1124,13 +1118,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5425531914893617</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L21">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1142,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1150,13 +1144,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5238095238095238</v>
+        <v>0.4960835509138381</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1168,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1176,13 +1170,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.4882506527415144</v>
+        <v>0.4440677966101695</v>
       </c>
       <c r="L23">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="M23">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1194,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>196</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1202,13 +1196,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4558823529411765</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="L24">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M24">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1220,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1254,13 +1248,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.423728813559322</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L26">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1272,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>170</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1280,13 +1274,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.390625</v>
+        <v>0.297071129707113</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="M27">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1298,59 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K28">
-        <v>0.3561643835616438</v>
-      </c>
-      <c r="L28">
-        <v>26</v>
-      </c>
-      <c r="M28">
-        <v>26</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29">
-        <v>0.301255230125523</v>
-      </c>
-      <c r="L29">
-        <v>72</v>
-      </c>
-      <c r="M29">
-        <v>72</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
